--- a/NformTester/NformTester/keywordscripts/TST483_SelectOneOrMoreThanOneDeviceParameters.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST483_SelectOneOrMoreThanOneDeviceParameters.xlsx
@@ -3550,331 +3550,330 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Author</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NformLogin</t>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. Rows</t>
+  </si>
+  <si>
+    <t>Exception / Error</t>
+  </si>
+  <si>
+    <t>True / False</t>
+  </si>
+  <si>
+    <t>Ranorex Version</t>
+  </si>
+  <si>
+    <t>Nform Viewer</t>
+  </si>
+  <si>
+    <t>Nform Server</t>
+  </si>
+  <si>
+    <t>Database Type</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Version</t>
+  </si>
+  <si>
+    <t>Managed device limit</t>
+  </si>
+  <si>
+    <t>Advanced Communications</t>
+  </si>
+  <si>
+    <t>Advanced Notification</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>;Login.</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"localhost"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>;Clear operation.</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>;Add one device.</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>FormData_Point_Details</t>
+  </si>
+  <si>
+    <t>Del_Device</t>
+  </si>
+  <si>
+    <t>Enable_trap_forwarding</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>VerifyTxtfileValues</t>
+  </si>
+  <si>
+    <t>Parametrics</t>
+  </si>
+  <si>
+    <t>VerifyExcelfileValues</t>
+  </si>
+  <si>
+    <t>TreeItemUPS_10_146_85_6</t>
+  </si>
+  <si>
+    <t>Parametrics_device_tree</t>
+  </si>
+  <si>
+    <t>Parametrics_table</t>
+  </si>
+  <si>
+    <t>Details_parametrics</t>
+  </si>
+  <si>
+    <t>Refresh_parametrics</t>
+  </si>
+  <si>
+    <t>Edit_parametrics</t>
+  </si>
+  <si>
+    <t>Apply_parametrics</t>
+  </si>
+  <si>
+    <t>Read_only_parametrics</t>
+  </si>
+  <si>
+    <t>Refresh_trends</t>
+  </si>
+  <si>
+    <t>Copy_data_trends</t>
+  </si>
+  <si>
+    <t>Graph_trends</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Previous_time_combo</t>
+  </si>
+  <si>
+    <t>Previous_time_up</t>
+  </si>
+  <si>
+    <t>Previous_time_down</t>
+  </si>
+  <si>
+    <t>FromTime</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToTime</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>RightClick</t>
+  </si>
+  <si>
+    <t>DoubleClickItem</t>
+  </si>
+  <si>
+    <t>ClickCell</t>
+  </si>
+  <si>
+    <t>MoveTo</t>
+  </si>
+  <si>
+    <t>Expand</t>
+  </si>
+  <si>
+    <t>VerifyContains</t>
+  </si>
+  <si>
+    <t>VerifyNotContains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Go to the "Trends". </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sashimi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Select one or more Parameter Data points name. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Prerequisites:Hardware: 1.Basic License is added and SNMP devices are added. 2.Advanced communications license must be installed to enable the trending. 3.All the data points will get loggied in the database.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is to test the functionality for select one or more than one device parameters in configure trending graph.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10080"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormToo_Many_Graph_Points</t>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>C:\\Nform\\bin\\NformViewer.exe</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Author</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NformLogin</t>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>No. Rows</t>
-  </si>
-  <si>
-    <t>Exception / Error</t>
-  </si>
-  <si>
-    <t>True / False</t>
-  </si>
-  <si>
-    <t>Ranorex Version</t>
-  </si>
-  <si>
-    <t>Nform Viewer</t>
-  </si>
-  <si>
-    <t>Nform Server</t>
-  </si>
-  <si>
-    <t>Database Type</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Database Version</t>
-  </si>
-  <si>
-    <t>Managed device limit</t>
-  </si>
-  <si>
-    <t>Advanced Communications</t>
-  </si>
-  <si>
-    <t>Advanced Notification</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>;Login.</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>;Clear operation.</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>;Add one device.</t>
-  </si>
-  <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>FormData_Point_Details</t>
-  </si>
-  <si>
-    <t>Del_Device</t>
-  </si>
-  <si>
-    <t>Enable_trap_forwarding</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>VerifyTxtfileValues</t>
-  </si>
-  <si>
-    <t>Parametrics</t>
-  </si>
-  <si>
-    <t>VerifyExcelfileValues</t>
-  </si>
-  <si>
-    <t>TreeItemUPS_10_146_85_6</t>
-  </si>
-  <si>
-    <t>Parametrics_device_tree</t>
-  </si>
-  <si>
-    <t>Parametrics_table</t>
-  </si>
-  <si>
-    <t>Details_parametrics</t>
-  </si>
-  <si>
-    <t>Refresh_parametrics</t>
-  </si>
-  <si>
-    <t>Edit_parametrics</t>
-  </si>
-  <si>
-    <t>Apply_parametrics</t>
-  </si>
-  <si>
-    <t>Read_only_parametrics</t>
-  </si>
-  <si>
-    <t>Refresh_trends</t>
-  </si>
-  <si>
-    <t>Copy_data_trends</t>
-  </si>
-  <si>
-    <t>Graph_trends</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Previous_time_combo</t>
-  </si>
-  <si>
-    <t>Previous_time_up</t>
-  </si>
-  <si>
-    <t>Previous_time_down</t>
-  </si>
-  <si>
-    <t>FromTime</t>
-  </si>
-  <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>ToTime</t>
-  </si>
-  <si>
-    <t>ToDate</t>
-  </si>
-  <si>
-    <t>RightClick</t>
-  </si>
-  <si>
-    <t>DoubleClickItem</t>
-  </si>
-  <si>
-    <t>ClickCell</t>
-  </si>
-  <si>
-    <t>MoveTo</t>
-  </si>
-  <si>
-    <t>Expand</t>
-  </si>
-  <si>
-    <t>VerifyContains</t>
-  </si>
-  <si>
-    <t>VerifyNotContains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Go to the "Trends". </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sashimi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Select one or more Parameter Data points name. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Prerequisites:Hardware: 1.Basic License is added and SNMP devices are added. 2.Advanced communications license must be installed to enable the trending. 3.All the data points will get loggied in the database.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to test the functionality for select one or more than one device parameters in configure trending graph.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devices</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10080"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormToo_Many_Graph_Points</t>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4402,7 +4401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4467,13 +4468,13 @@
         <v>764</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>765</v>
+        <v>859</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4489,32 +4490,32 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4524,16 +4525,16 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4555,7 +4556,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B5" s="10">
         <v>41129</v>
@@ -4564,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4580,7 +4581,7 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B6" s="10">
         <v>41129</v>
@@ -4589,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4605,7 +4606,7 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B7" s="4">
         <v>63</v>
@@ -4614,7 +4615,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4633,13 +4634,13 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>576</v>
@@ -4649,41 +4650,41 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
@@ -4705,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -4727,23 +4728,23 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -4756,14 +4757,14 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>576</v>
@@ -4775,7 +4776,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4787,14 +4788,14 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>576</v>
@@ -4816,14 +4817,14 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>518</v>
@@ -4845,14 +4846,14 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>574</v>
@@ -4874,14 +4875,14 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>574</v>
@@ -4904,13 +4905,13 @@
     <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C17" s="5">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>518</v>
@@ -4933,13 +4934,13 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>576</v>
@@ -4961,16 +4962,16 @@
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="A19" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -4986,14 +4987,14 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="5">
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>19</v>
@@ -5015,14 +5016,14 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>19</v>
@@ -5037,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5051,7 +5052,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>19</v>
@@ -5076,7 +5077,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>19</v>
@@ -5101,7 +5102,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
@@ -5120,7 +5121,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>574</v>
@@ -5129,7 +5130,7 @@
         <v>575</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
@@ -5149,7 +5150,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>574</v>
@@ -5158,7 +5159,7 @@
         <v>575</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H26" s="11">
         <v>3</v>
@@ -5178,7 +5179,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>574</v>
@@ -5187,7 +5188,7 @@
         <v>575</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H27" s="11">
         <v>4</v>
@@ -5207,7 +5208,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>574</v>
@@ -5216,7 +5217,7 @@
         <v>575</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H28" s="11">
         <v>5</v>
@@ -5236,7 +5237,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>574</v>
@@ -5245,7 +5246,7 @@
         <v>575</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H29" s="11">
         <v>6</v>
@@ -5265,7 +5266,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>574</v>
@@ -5274,7 +5275,7 @@
         <v>575</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H30" s="11">
         <v>7</v>
@@ -5294,7 +5295,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>574</v>
@@ -5303,7 +5304,7 @@
         <v>575</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H31" s="11">
         <v>8</v>
@@ -5323,7 +5324,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>574</v>
@@ -5332,7 +5333,7 @@
         <v>575</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H32" s="11">
         <v>9</v>
@@ -5351,10 +5352,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>17</v>
@@ -5375,10 +5376,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>17</v>
@@ -5399,7 +5400,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>574</v>
@@ -5411,10 +5412,10 @@
         <v>7</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J35" s="5">
         <v>30</v>
@@ -5429,7 +5430,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>574</v>
@@ -5441,7 +5442,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -5455,7 +5456,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>574</v>
@@ -5467,7 +5468,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
@@ -5481,7 +5482,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>574</v>
@@ -5505,7 +5506,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>574</v>
@@ -5517,10 +5518,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J39" s="5">
         <v>10080</v>
@@ -5535,7 +5536,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>574</v>
@@ -5547,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -5561,7 +5562,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>574</v>
@@ -5573,7 +5574,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -5587,7 +5588,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>574</v>
@@ -5596,7 +5597,7 @@
         <v>330</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -5611,7 +5612,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>574</v>
@@ -5623,10 +5624,10 @@
         <v>7</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
@@ -5641,7 +5642,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>574</v>
@@ -5665,10 +5666,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
@@ -5687,7 +5688,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>19</v>
@@ -5711,7 +5712,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>19</v>
@@ -5735,13 +5736,13 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>2</v>
@@ -5759,7 +5760,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>19</v>
@@ -5783,7 +5784,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>19</v>
@@ -5795,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -5809,7 +5810,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>19</v>
@@ -5833,7 +5834,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>19</v>
@@ -5857,7 +5858,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>19</v>
@@ -5881,7 +5882,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>19</v>
@@ -5893,10 +5894,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J54" s="5" t="b">
         <v>1</v>
@@ -5911,7 +5912,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>19</v>
@@ -5923,10 +5924,10 @@
         <v>7</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J55" s="5">
         <v>2</v>
@@ -5941,7 +5942,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>19</v>
@@ -5965,7 +5966,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="5"/>
@@ -5983,7 +5984,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>754</v>
@@ -6005,7 +6006,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>19</v>
@@ -6029,7 +6030,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>19</v>
@@ -6053,10 +6054,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>577</v>
@@ -6065,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -6079,10 +6080,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>185</v>
@@ -6103,7 +6104,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>583</v>
@@ -6127,10 +6128,10 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>95</v>
@@ -6841,7 +6842,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
@@ -7723,7 +7724,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -8252,7 +8253,7 @@
         <v>568</v>
       </c>
       <c r="AU15" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BB15" t="s">
         <v>608</v>
@@ -8784,7 +8785,7 @@
         <v>418</v>
       </c>
       <c r="AQ26" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="BB26" t="s">
         <v>617</v>
@@ -9706,7 +9707,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AO82" t="s">
         <v>332</v>
@@ -9714,10 +9715,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E83" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AO83" t="s">
         <v>360</v>
@@ -9725,7 +9726,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E84" t="s">
         <v>102</v>
@@ -9784,7 +9785,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="E91" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AO91" t="s">
         <v>478</v>
@@ -9792,7 +9793,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AO92" t="s">
         <v>479</v>
@@ -9800,7 +9801,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AO93" t="s">
         <v>480</v>
@@ -9808,7 +9809,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AO94" t="s">
         <v>481</v>
@@ -9816,7 +9817,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AO95" t="s">
         <v>482</v>
@@ -9824,7 +9825,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AO96" t="s">
         <v>483</v>
@@ -9832,7 +9833,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AO97" t="s">
         <v>484</v>
@@ -9840,7 +9841,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AO98" t="s">
         <v>485</v>
@@ -9848,7 +9849,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AO99" t="s">
         <v>486</v>
@@ -9864,7 +9865,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AO101" t="s">
         <v>488</v>
@@ -9872,7 +9873,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AO102" t="s">
         <v>382</v>
@@ -9896,7 +9897,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AO105" t="s">
         <v>491</v>
@@ -9904,7 +9905,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AO106" t="s">
         <v>492</v>
@@ -9912,7 +9913,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AO107" t="s">
         <v>493</v>
@@ -9920,7 +9921,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AO108" t="s">
         <v>494</v>
@@ -9944,7 +9945,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AO111" t="s">
         <v>497</v>
@@ -9952,7 +9953,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AO112" t="s">
         <v>498</v>
@@ -9960,7 +9961,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="AO113" t="s">
         <v>499</v>
@@ -9968,7 +9969,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AO114" t="s">
         <v>500</v>
@@ -13541,7 +13542,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="DH2" t="s">
         <v>111</v>
@@ -16504,7 +16505,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -16627,10 +16628,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="CI3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16657,7 +16658,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -16672,10 +16673,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="CX3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -16783,7 +16784,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16948,7 +16949,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -17005,7 +17006,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -17218,10 +17219,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="JX3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -17428,7 +17429,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -17467,7 +17468,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -17518,10 +17519,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="NT3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -17611,7 +17612,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -17782,7 +17783,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -17797,7 +17798,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -17866,7 +17867,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -17893,13 +17894,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -18061,7 +18062,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -18514,7 +18515,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -18535,10 +18536,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AAU3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -18583,7 +18584,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -18625,7 +18626,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -18775,7 +18776,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -18796,7 +18797,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -18859,7 +18860,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -18871,10 +18872,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AFC3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18982,7 +18983,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18994,7 +18995,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -19057,7 +19058,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -19207,7 +19208,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -19264,7 +19265,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -19318,7 +19319,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -19348,7 +19349,7 @@
         <v>112</v>
       </c>
       <c r="ALE3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -19665,7 +19666,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AT4" t="s">
         <v>5</v>
@@ -19788,10 +19789,10 @@
         <v>7</v>
       </c>
       <c r="CH4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="CI4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="CJ4" t="s">
         <v>7</v>
@@ -19818,7 +19819,7 @@
         <v>7</v>
       </c>
       <c r="CR4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="CS4" t="s">
         <v>7</v>
@@ -19833,10 +19834,10 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="CX4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="CY4" t="s">
         <v>7</v>
@@ -19944,7 +19945,7 @@
         <v>6</v>
       </c>
       <c r="EH4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="EI4" t="s">
         <v>5</v>
@@ -20109,7 +20110,7 @@
         <v>5</v>
       </c>
       <c r="GK4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="GL4" t="s">
         <v>7</v>
@@ -20166,7 +20167,7 @@
         <v>7</v>
       </c>
       <c r="HD4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="HE4" t="s">
         <v>7</v>
@@ -20379,10 +20380,10 @@
         <v>7</v>
       </c>
       <c r="JW4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="JX4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="JY4" t="s">
         <v>5</v>
@@ -20589,7 +20590,7 @@
         <v>7</v>
       </c>
       <c r="MO4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="MP4" t="s">
         <v>5</v>
@@ -20628,7 +20629,7 @@
         <v>7</v>
       </c>
       <c r="NB4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="NC4" t="s">
         <v>7</v>
@@ -20679,10 +20680,10 @@
         <v>5</v>
       </c>
       <c r="NS4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="NT4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="NU4" t="s">
         <v>5</v>
@@ -20772,7 +20773,7 @@
         <v>5</v>
       </c>
       <c r="OX4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="OY4" t="s">
         <v>7</v>
@@ -20943,7 +20944,7 @@
         <v>7</v>
       </c>
       <c r="RC4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="RD4" t="s">
         <v>5</v>
@@ -20958,7 +20959,7 @@
         <v>5</v>
       </c>
       <c r="RH4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="RI4" t="s">
         <v>7</v>
@@ -21027,7 +21028,7 @@
         <v>5</v>
       </c>
       <c r="SE4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="SF4" t="s">
         <v>5</v>
@@ -21054,13 +21055,13 @@
         <v>5</v>
       </c>
       <c r="SN4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="SO4" t="s">
         <v>5</v>
       </c>
       <c r="SP4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="SQ4" t="s">
         <v>7</v>
@@ -21222,7 +21223,7 @@
         <v>5</v>
       </c>
       <c r="UR4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="US4" t="s">
         <v>7</v>
@@ -21675,7 +21676,7 @@
         <v>4</v>
       </c>
       <c r="AAM4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AAN4" t="s">
         <v>5</v>
@@ -21696,10 +21697,10 @@
         <v>7</v>
       </c>
       <c r="AAT4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AAU4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AAV4" t="s">
         <v>5</v>
@@ -21744,7 +21745,7 @@
         <v>7</v>
       </c>
       <c r="ABJ4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="ABK4" t="s">
         <v>7</v>
@@ -21786,7 +21787,7 @@
         <v>4</v>
       </c>
       <c r="ABX4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="ABY4" t="s">
         <v>4</v>
@@ -21936,7 +21937,7 @@
         <v>5</v>
       </c>
       <c r="ADV4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="ADW4" t="s">
         <v>7</v>
@@ -21957,7 +21958,7 @@
         <v>7</v>
       </c>
       <c r="AEC4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AED4" t="s">
         <v>7</v>
@@ -22020,7 +22021,7 @@
         <v>7</v>
       </c>
       <c r="AEX4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AEY4" t="s">
         <v>4</v>
@@ -22032,10 +22033,10 @@
         <v>5</v>
       </c>
       <c r="AFB4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AFC4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AFD4" t="s">
         <v>7</v>
@@ -22143,7 +22144,7 @@
         <v>5</v>
       </c>
       <c r="AGM4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AGN4" t="s">
         <v>7</v>
@@ -22155,7 +22156,7 @@
         <v>7</v>
       </c>
       <c r="AGQ4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AGR4" t="s">
         <v>7</v>
@@ -22218,7 +22219,7 @@
         <v>7</v>
       </c>
       <c r="AHL4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AHM4" t="s">
         <v>7</v>
@@ -22368,7 +22369,7 @@
         <v>7</v>
       </c>
       <c r="AJJ4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AJK4" t="s">
         <v>6</v>
@@ -22425,7 +22426,7 @@
         <v>7</v>
       </c>
       <c r="AKC4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AKD4" t="s">
         <v>6</v>
@@ -22479,7 +22480,7 @@
         <v>7</v>
       </c>
       <c r="AKU4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="AKV4" t="s">
         <v>7</v>
@@ -22509,7 +22510,7 @@
         <v>5</v>
       </c>
       <c r="ALE4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="ALF4" t="s">
         <v>5</v>
@@ -22952,7 +22953,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22994,7 +22995,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -24215,7 +24216,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -25193,7 +25194,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -25304,7 +25305,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -25316,7 +25317,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
@@ -25885,7 +25886,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AT6" t="s">
         <v>7</v>
@@ -25897,13 +25898,13 @@
         <v>98</v>
       </c>
       <c r="CR6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="CW6" t="s">
         <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="DG6" t="s">
         <v>8</v>
@@ -26050,7 +26051,7 @@
         <v>7</v>
       </c>
       <c r="GK6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="GP6" t="s">
         <v>7</v>
@@ -26326,10 +26327,10 @@
         <v>7</v>
       </c>
       <c r="NS6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="NT6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="NU6" t="s">
         <v>7</v>
@@ -26380,7 +26381,7 @@
         <v>7</v>
       </c>
       <c r="OX6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="PD6" t="s">
         <v>7</v>
@@ -26446,7 +26447,7 @@
         <v>7</v>
       </c>
       <c r="RC6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="RD6" t="s">
         <v>7</v>
@@ -26485,7 +26486,7 @@
         <v>7</v>
       </c>
       <c r="SE6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="SF6" t="s">
         <v>7</v>
@@ -26503,7 +26504,7 @@
         <v>7</v>
       </c>
       <c r="SP6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="TF6" t="s">
         <v>7</v>
@@ -26791,10 +26792,10 @@
         <v>7</v>
       </c>
       <c r="AAT6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AAU6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AAV6" t="s">
         <v>7</v>
@@ -26827,7 +26828,7 @@
         <v>7</v>
       </c>
       <c r="ABJ6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="ABN6" t="s">
         <v>7</v>
@@ -26839,7 +26840,7 @@
         <v>5</v>
       </c>
       <c r="ABX6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="ABY6" t="s">
         <v>5</v>
@@ -26890,7 +26891,7 @@
         <v>7</v>
       </c>
       <c r="ADV6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="ADY6" t="s">
         <v>5</v>
@@ -26902,13 +26903,13 @@
         <v>5</v>
       </c>
       <c r="AEC6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AEG6" t="s">
         <v>7</v>
       </c>
       <c r="AEX6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AEY6" t="s">
         <v>5</v>
@@ -26923,7 +26924,7 @@
         <v>98</v>
       </c>
       <c r="AFC6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AFP6" t="s">
         <v>5</v>
@@ -26974,7 +26975,7 @@
         <v>7</v>
       </c>
       <c r="AHL6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AHX6" t="s">
         <v>7</v>
@@ -27007,7 +27008,7 @@
         <v>7</v>
       </c>
       <c r="AJJ6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AJK6" t="s">
         <v>8</v>
@@ -27019,7 +27020,7 @@
         <v>7</v>
       </c>
       <c r="AKC6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AKD6" t="s">
         <v>8</v>
@@ -27034,7 +27035,7 @@
         <v>7</v>
       </c>
       <c r="AKU6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AKW6" t="s">
         <v>8</v>
@@ -27046,7 +27047,7 @@
         <v>7</v>
       </c>
       <c r="ALE6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="ALF6" t="s">
         <v>7</v>
@@ -28444,7 +28445,7 @@
         <v>7</v>
       </c>
       <c r="CH9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="CI9" t="s">
         <v>7</v>
@@ -28459,13 +28460,13 @@
         <v>7</v>
       </c>
       <c r="EH9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="GK9" t="s">
         <v>7</v>
       </c>
       <c r="HD9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="JP9" t="s">
         <v>8</v>
@@ -28474,16 +28475,16 @@
         <v>8</v>
       </c>
       <c r="JW9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="JX9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="MO9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="NB9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="NL9" t="s">
         <v>8</v>
@@ -28501,7 +28502,7 @@
         <v>7</v>
       </c>
       <c r="RH9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="SE9" t="s">
         <v>7</v>
@@ -28513,13 +28514,13 @@
         <v>7</v>
       </c>
       <c r="UR9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AAL9" t="s">
         <v>8</v>
       </c>
       <c r="AAM9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AAT9" t="s">
         <v>7</v>
@@ -28599,7 +28600,7 @@
         <v>8</v>
       </c>
       <c r="CH10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="CI10" t="s">
         <v>8</v>
@@ -28614,25 +28615,25 @@
         <v>8</v>
       </c>
       <c r="EH10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="GK10" t="s">
         <v>8</v>
       </c>
       <c r="HD10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="JW10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="JX10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="MO10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="NB10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="NS10" t="s">
         <v>8</v>
@@ -28647,7 +28648,7 @@
         <v>8</v>
       </c>
       <c r="RH10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="SE10" t="s">
         <v>8</v>
@@ -28659,10 +28660,10 @@
         <v>8</v>
       </c>
       <c r="UR10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AAM10" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AAT10" t="s">
         <v>8</v>
@@ -28715,180 +28716,180 @@
     </row>
     <row r="11" spans="1:1053">
       <c r="AS11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="CI11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="CR11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="CW11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="CX11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="GK11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="NS11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="NT11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="OX11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="RC11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="SE11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="SN11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="SP11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AAT11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AAU11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="ABJ11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="ABX11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="ADV11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AEC11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AEX11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AFB11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AFC11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AGM11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AGQ11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AHL11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AJJ11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AKC11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="AKU11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="ALE11" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:1053">
       <c r="AS12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="CI12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="CR12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="CW12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="CX12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="GK12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="NS12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="NT12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="OX12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="RC12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="SE12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="SN12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="SP12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AAT12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AAU12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="ABJ12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="ABX12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="ADV12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AEC12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AEX12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AFB12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AFC12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AGM12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AGQ12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AHL12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AJJ12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AKC12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AKU12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="ALE12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST483_SelectOneOrMoreThanOneDeviceParameters.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST483_SelectOneOrMoreThanOneDeviceParameters.xlsx
@@ -1243,7 +1243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7701" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="864">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3874,6 +3874,14 @@
   </si>
   <si>
     <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4094,7 +4102,35 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4399,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4609,7 +4645,7 @@
         <v>771</v>
       </c>
       <c r="B7" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4640,34 +4676,24 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>576</v>
+        <v>787</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
@@ -4681,22 +4707,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>787</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -4706,24 +4734,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>862</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -4735,23 +4761,33 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>845</v>
+        <v>793</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>576</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+        <v>582</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="2"/>
     </row>
@@ -4764,20 +4800,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>861</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4798,10 +4830,10 @@
         <v>845</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>2</v>
@@ -4827,13 +4859,13 @@
         <v>845</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>518</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>525</v>
+        <v>846</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -4856,15 +4888,17 @@
         <v>845</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>376</v>
+        <v>577</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>861</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -4885,10 +4919,10 @@
         <v>845</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>2</v>
@@ -4917,7 +4951,7 @@
         <v>518</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>17</v>
+        <v>525</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>2</v>
@@ -4943,10 +4977,10 @@
         <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>95</v>
+        <v>376</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>2</v>
@@ -4960,7 +4994,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="15">
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>783</v>
       </c>
@@ -4970,12 +5004,18 @@
       <c r="C19" s="5">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="D19" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -4994,19 +5034,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>19</v>
+        <v>845</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -5023,23 +5063,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>19</v>
+        <v>845</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>576</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="11">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>861</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -5047,23 +5083,17 @@
       <c r="N21" s="7"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15">
       <c r="C22" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="D22" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5083,13 +5113,13 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -5097,18 +5127,28 @@
       <c r="N23" s="7"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="15">
+    <row r="24" spans="1:15">
       <c r="C24" s="5">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="D24" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>861</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -5124,20 +5164,16 @@
         <v>787</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>574</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>575</v>
+        <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="H25" s="11">
-        <v>2</v>
-      </c>
-      <c r="I25" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -5150,53 +5186,39 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>574</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>575</v>
+        <v>109</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="H26" s="11">
-        <v>3</v>
-      </c>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="7"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15">
       <c r="C27" s="5">
         <v>26</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="H27" s="11">
-        <v>4</v>
-      </c>
-      <c r="I27" s="11">
-        <v>1</v>
-      </c>
-      <c r="J27" s="11"/>
+      <c r="D27" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -5220,7 +5242,7 @@
         <v>831</v>
       </c>
       <c r="H28" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" s="11">
         <v>1</v>
@@ -5237,7 +5259,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>574</v>
@@ -5249,12 +5271,12 @@
         <v>831</v>
       </c>
       <c r="H29" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5278,12 +5300,12 @@
         <v>831</v>
       </c>
       <c r="H30" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I30" s="11">
         <v>1</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -5307,7 +5329,7 @@
         <v>831</v>
       </c>
       <c r="H31" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I31" s="11">
         <v>1</v>
@@ -5336,7 +5358,7 @@
         <v>831</v>
       </c>
       <c r="H32" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I32" s="11">
         <v>1</v>
@@ -5355,16 +5377,20 @@
         <v>787</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>857</v>
+        <v>574</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+        <v>831</v>
+      </c>
+      <c r="H33" s="11">
+        <v>7</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5379,16 +5405,20 @@
         <v>787</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>857</v>
+        <v>574</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+        <v>831</v>
+      </c>
+      <c r="H34" s="11">
+        <v>8</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -5406,20 +5436,18 @@
         <v>574</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>331</v>
+        <v>575</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="J35" s="5">
-        <v>30</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="H35" s="11">
+        <v>9</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -5433,17 +5461,15 @@
         <v>787</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>574</v>
+        <v>857</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>331</v>
+        <v>17</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>854</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5459,17 +5485,15 @@
         <v>787</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>574</v>
+        <v>857</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>331</v>
+        <v>17</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>855</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5488,14 +5512,20 @@
         <v>574</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="J38" s="5">
+        <v>30</v>
+      </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -5515,17 +5545,13 @@
         <v>331</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="J39" s="5">
-        <v>10080</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -5548,7 +5574,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -5568,14 +5594,12 @@
         <v>574</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>856</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5594,14 +5618,20 @@
         <v>574</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="J42" s="5">
+        <v>10080</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5621,17 +5651,13 @@
         <v>331</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -5648,12 +5674,14 @@
         <v>574</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>856</v>
+      </c>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5666,15 +5694,17 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>843</v>
+        <v>787</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2</v>
-      </c>
-      <c r="G45" s="5"/>
+        <v>574</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>847</v>
+      </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="5"/>
@@ -5691,17 +5721,23 @@
         <v>787</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>19</v>
+        <v>574</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -5715,10 +5751,10 @@
         <v>787</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>19</v>
+        <v>574</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>2</v>
@@ -5736,20 +5772,18 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>787</v>
+        <v>843</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -5766,14 +5800,14 @@
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -5784,74 +5818,72 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="E50" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="I50" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="16"/>
+      <c r="N50" s="7"/>
     </row>
     <row r="51" spans="3:14">
       <c r="C51" s="5">
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="E51" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>116</v>
+        <v>821</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="16"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="3:14">
       <c r="C52" s="5">
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="E52" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="16"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="3:14">
       <c r="C53" s="5">
@@ -5864,12 +5896,14 @@
         <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>848</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -5888,20 +5922,14 @@
         <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="J54" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -5918,20 +5946,14 @@
         <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="J55" s="5">
-        <v>2</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -5951,7 +5973,7 @@
         <v>110</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -5961,88 +5983,102 @@
       <c r="M56" s="5"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="3:14" ht="15">
+    <row r="57" spans="3:14">
       <c r="C57" s="5">
         <v>56</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="D57" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="J57" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="7"/>
+      <c r="N57" s="16"/>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="5">
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="F58" s="5">
-        <v>2</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+        <v>840</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2</v>
+      </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="7"/>
+      <c r="N58" s="16"/>
     </row>
     <row r="59" spans="3:14">
       <c r="C59" s="5">
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E59" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="7"/>
+      <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:14" ht="15">
       <c r="C60" s="5">
         <v>59</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D60" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -6054,74 +6090,70 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>800</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="16"/>
+      <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="3:14" ht="14.25">
+    <row r="62" spans="3:14">
       <c r="C62" s="5">
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>799</v>
+        <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="5"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="16"/>
+      <c r="N62" s="7"/>
     </row>
     <row r="63" spans="3:14">
       <c r="C63" s="5">
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>583</v>
+        <v>787</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="11"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="16"/>
+      <c r="N63" s="7"/>
     </row>
     <row r="64" spans="3:14">
       <c r="C64" s="5">
@@ -6134,40 +6166,122 @@
         <v>799</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>95</v>
+        <v>577</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="7"/>
+      <c r="N64" s="16"/>
+    </row>
+    <row r="65" spans="3:14" ht="14.25">
+      <c r="C65" s="5">
+        <v>64</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="3:14">
+      <c r="C66" s="5">
+        <v>65</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="3:14">
+      <c r="C67" s="5">
+        <v>66</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N64">
-    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N67">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G62:G64 G2:G60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65:G67 G2:G63">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59:D60 D8:D18 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D63 D11:D21 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F67">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E67">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST483_SelectOneOrMoreThanOneDeviceParameters.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST483_SelectOneOrMoreThanOneDeviceParameters.xlsx
@@ -3862,25 +3862,27 @@
     <t>FormToo_Many_Graph_Points</t>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C:\\Nform\\bin\\NformViewer.exe</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4102,21 +4104,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4437,8 +4425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4504,7 +4492,7 @@
         <v>764</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -4620,7 +4608,7 @@
         <v>770</v>
       </c>
       <c r="B6" s="10">
-        <v>41129</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4667,11 +4655,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>858</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4698,11 +4684,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>773</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4728,16 +4712,20 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>773</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F10" s="11">
         <v>2</v>
@@ -4753,10 +4741,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4774,10 +4760,10 @@
         <v>794</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>797</v>
@@ -4793,7 +4779,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4820,7 +4806,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4849,7 +4835,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4878,7 +4864,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4897,7 +4883,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4909,7 +4895,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4937,10 +4923,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>781</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4968,7 +4954,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4995,11 +4981,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>783</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5027,9 +5011,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>783</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>773</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5056,7 +5042,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5084,6 +5070,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5147,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -6256,18 +6246,18 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N2:N67">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
